--- a/biology/Zoologie/Amblypneustes/Amblypneustes.xlsx
+++ b/biology/Zoologie/Amblypneustes/Amblypneustes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amblypneustes est un genre d'oursins (échinodermes) de la famille des Temnopleuridae, que l'on trouve en Australie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amblypneustes est un genre d'oursins (échinodermes) de la famille des Temnopleuridae, que l'on trouve en Australie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petits oursins réguliers, de forme sphérique, avec la bouche située au centre de la face inférieure (« face orale ») et l'anus à l'opposé (face dite « aborale »), au sein de l'« appareil apical » situé au sommet de la coquille (appelée « test »).
 Le test est presque parfaitement sphérique, avec une paroi relativement fine.
@@ -522,7 +536,7 @@
 Les plaques apparaissent presque nues, surtout aux interradius, mais il n'y a pas de zones nues bien définies sur les interambulacres adapicaux. 
 Il n'y a généralement pas de fossettes aux sutures. 
 Le péristome est petit (30-35 % du diamètre du test), avec des encoches buccales très réduites.
-Les radioles sont courtes et uniformes[1].
+Les radioles sont courtes et uniformes.
 Ces oursins ne doivent pas être confondus avec les proches Holopneustes, eux aussi élancés verticalement, mais qui portent un tubercule primaire sur chaque plaque ambulacraire.
 </t>
         </is>
@@ -552,9 +566,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (26 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (26 avril 2014) :
 Amblypneustes corrali Lambert &amp; Roig in Sánchez Roig, 1949 †
 Amblypneustes elevatus (Hutton, 1872) -- Nouvelle-Zélande
 Amblypneustes formosus Valenciennes, 1846 -- Sud de l'Australie
